--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9747F6C-66D1-475F-B108-F6B7D491A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18252" windowHeight="9708" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -379,10 +380,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BatchTxtNo = , AND FinCode = , AND ApprDate=</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>custNoEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -436,13 +433,17 @@
   </si>
   <si>
     <t>FinCode asc,CreateDate desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchTxtNo = , AND RemitBank = , AND ApprDate=</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -772,12 +773,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="5"/>
-    <cellStyle name="一般 2 3" xfId="4"/>
-    <cellStyle name="一般 2 4" xfId="6"/>
-    <cellStyle name="一般 2 5" xfId="2"/>
-    <cellStyle name="一般 3" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 2 5" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -868,6 +869,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -903,6 +921,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1078,11 +1113,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1247,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>31</v>
@@ -1669,12 +1704,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1698,7 +1733,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>71</v>
@@ -1709,7 +1744,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>76</v>
@@ -1720,7 +1755,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>77</v>
@@ -1731,7 +1766,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>74</v>
@@ -1742,7 +1777,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>78</v>
@@ -1753,7 +1788,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>80</v>
@@ -1761,15 +1796,15 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>85</v>
@@ -1777,7 +1812,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>86</v>
@@ -1785,7 +1820,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>91</v>
@@ -1793,13 +1828,13 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C12" s="34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9747F6C-66D1-475F-B108-F6B7D491A255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780C435-0B39-42F9-972B-9BFBA565E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -437,6 +437,22 @@
   </si>
   <si>
     <t>BatchTxtNo = , AND RemitBank = , AND ApprDate=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExportDate= , AND FinCode=</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExportDate DESC ,CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findExporFinCode</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +668,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,10 +684,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -683,9 +699,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -698,9 +711,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -716,7 +726,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -725,10 +735,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -754,9 +761,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1116,26 +1120,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" style="18" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="16" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1147,78 +1151,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="32.4">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1237,455 +1241,455 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="29" t="s">
+      <c r="D9" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="28">
         <v>8</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="A10" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="28">
         <v>6</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>3</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="28">
         <v>8</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>4</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="29">
         <v>10</v>
       </c>
-      <c r="F12" s="33"/>
+      <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>5</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="29">
         <v>7</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="28"/>
+      <c r="G13" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="A14" s="17">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="29">
         <v>3</v>
       </c>
-      <c r="F14" s="31"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:7" ht="81">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>7</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="31"/>
-      <c r="G15" s="29" t="s">
+      <c r="F15" s="28"/>
+      <c r="G15" s="26" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <v>16</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>9</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="28">
         <v>16</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>10</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="29">
         <v>5</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="28">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>11</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E19" s="31">
+      <c r="E19" s="28">
         <v>8</v>
       </c>
-      <c r="F19" s="31"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="28"/>
+      <c r="G19" s="27" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="A20" s="17">
         <v>12</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="28">
         <v>8</v>
       </c>
-      <c r="F20" s="31"/>
-      <c r="G20" s="30" t="s">
+      <c r="F20" s="28"/>
+      <c r="G20" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="A21" s="17">
         <v>13</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="29" t="s">
+      <c r="D21" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="31">
+      <c r="E21" s="28">
         <v>8</v>
       </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="30" t="s">
+      <c r="F21" s="28"/>
+      <c r="G21" s="27" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="19">
+      <c r="A22" s="17">
         <v>14</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="29">
         <v>7</v>
       </c>
-      <c r="F22" s="31"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>15</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="28">
         <v>16</v>
       </c>
-      <c r="F23" s="31"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>16</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="28">
         <v>8</v>
       </c>
-      <c r="F24" s="31"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>17</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="29" t="s">
+      <c r="D25" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="29">
         <v>8</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="28"/>
+      <c r="G25" s="27" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>18</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="31">
+      <c r="E26" s="28">
         <v>4</v>
       </c>
-      <c r="F26" s="31"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="19">
+      <c r="A27" s="17">
         <v>19</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="28">
         <v>10</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="30" t="s">
+      <c r="F27" s="28"/>
+      <c r="G27" s="27" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>20</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="26" t="s">
+      <c r="D28" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="31"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="19">
+      <c r="A29" s="17">
         <v>21</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="25">
         <v>6</v>
       </c>
-      <c r="F29" s="33"/>
+      <c r="F29" s="30"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="33"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="30"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>23</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="E31" s="28">
+      <c r="E31" s="25">
         <v>6</v>
       </c>
-      <c r="F31" s="33"/>
+      <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="F32" s="33"/>
+      <c r="F32" s="30"/>
     </row>
     <row r="33" spans="6:6">
-      <c r="F33" s="33"/>
+      <c r="F33" s="30"/>
     </row>
     <row r="34" spans="6:6">
-      <c r="F34" s="33"/>
+      <c r="F34" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1705,11 +1709,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1739,7 +1743,7 @@
         <v>71</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1787,7 +1791,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="18" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1833,8 +1837,19 @@
       <c r="B12" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="1" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2780C435-0B39-42F9-972B-9BFBA565E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D74632-1B23-4B4B-ABFA-849AF7F2C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,12 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -453,6 +453,18 @@
   </si>
   <si>
     <t>findExporFinCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BringUpDate DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringUpDateFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">BringUpDate&gt;= </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -798,9 +810,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -838,9 +850,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -873,26 +885,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -925,26 +920,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1121,7 +1099,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1709,11 +1687,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1787,7 +1765,7 @@
         <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1850,6 +1828,17 @@
       </c>
       <c r="C13" s="1" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66D74632-1B23-4B4B-ABFA-849AF7F2C6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6ACB98-6137-4E2C-AD42-E5850E28CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -238,10 +238,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -466,6 +462,29 @@
   <si>
     <t xml:space="preserve">BringUpDate&gt;= </t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringUpDateCustNoFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = , AND BringUpDate&gt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bringUpDateCustNoEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = , AND BringUpDate= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FinCode ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -1098,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1119,7 +1138,7 @@
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1147,7 +1166,7 @@
       </c>
       <c r="B3" s="34"/>
       <c r="C3" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1223,7 +1242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1234,14 +1253,14 @@
         <v>30</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E9" s="28">
         <v>8</v>
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1259,12 +1278,12 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8">
       <c r="A11" s="17">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>31</v>
@@ -1277,7 +1296,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1285,7 +1304,7 @@
         <v>50</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>45</v>
@@ -1295,12 +1314,12 @@
       </c>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>55</v>
@@ -1316,7 +1335,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1352,10 +1371,10 @@
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.8">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1375,12 +1394,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8">
       <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>35</v>
@@ -1395,7 +1414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1415,12 +1434,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>37</v>
@@ -1433,10 +1452,10 @@
       </c>
       <c r="F19" s="28"/>
       <c r="G19" s="27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="19.8">
       <c r="A20" s="17">
         <v>12</v>
       </c>
@@ -1454,15 +1473,15 @@
       </c>
       <c r="F20" s="28"/>
       <c r="G20" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="19.8">
       <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>39</v>
@@ -1475,10 +1494,10 @@
       </c>
       <c r="F21" s="28"/>
       <c r="G21" s="27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8">
       <c r="A22" s="17">
         <v>14</v>
       </c>
@@ -1496,7 +1515,7 @@
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1514,7 +1533,7 @@
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8">
       <c r="A24" s="17">
         <v>16</v>
       </c>
@@ -1532,7 +1551,7 @@
       </c>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8">
       <c r="A25" s="17">
         <v>17</v>
       </c>
@@ -1550,10 +1569,10 @@
       </c>
       <c r="F25" s="28"/>
       <c r="G25" s="27" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8">
       <c r="A26" s="17">
         <v>18</v>
       </c>
@@ -1571,28 +1590,28 @@
       </c>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" ht="19.8">
       <c r="A27" s="17">
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="19" t="s">
-        <v>84</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="28">
         <v>10</v>
       </c>
       <c r="F27" s="28"/>
       <c r="G27" s="27" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="19.8">
       <c r="A28" s="17">
         <v>20</v>
       </c>
@@ -1603,57 +1622,57 @@
         <v>57</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8">
       <c r="A29" s="17">
         <v>21</v>
       </c>
       <c r="B29" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>60</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>61</v>
       </c>
       <c r="E29" s="25">
         <v>6</v>
       </c>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8">
       <c r="A30" s="17">
         <v>22</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="D30" s="23" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8">
       <c r="A31" s="17">
         <v>23</v>
       </c>
       <c r="B31" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="24" t="s">
-        <v>65</v>
-      </c>
       <c r="D31" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="25">
         <v>6</v>
@@ -1687,11 +1706,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1715,130 +1734,152 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19.8">
       <c r="A7" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>111</v>
+      <c r="B15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6ACB98-6137-4E2C-AD42-E5850E28CD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FD5EB8-EE7E-45B4-BED2-86C46F01EE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="120">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -485,6 +485,10 @@
   </si>
   <si>
     <t>TIMESTAMP</t>
+  </si>
+  <si>
+    <t>findCustNoFinCodeFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1117,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8">
+    <row r="9" spans="1:7">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1260,7 +1264,7 @@
       </c>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8">
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1278,7 +1282,7 @@
       </c>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8">
+    <row r="11" spans="1:7">
       <c r="A11" s="17">
         <v>3</v>
       </c>
@@ -1296,7 +1300,7 @@
       </c>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8">
+    <row r="12" spans="1:7">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1314,7 +1318,7 @@
       </c>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:7" ht="19.8">
+    <row r="13" spans="1:7">
       <c r="A13" s="17">
         <v>5</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8">
+    <row r="14" spans="1:7">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1374,7 +1378,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="19.8">
+    <row r="16" spans="1:7">
       <c r="A16" s="17">
         <v>8</v>
       </c>
@@ -1394,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.8">
+    <row r="17" spans="1:7">
       <c r="A17" s="17">
         <v>9</v>
       </c>
@@ -1414,7 +1418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.8">
+    <row r="18" spans="1:7">
       <c r="A18" s="17">
         <v>10</v>
       </c>
@@ -1434,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.8">
+    <row r="19" spans="1:7">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -1455,7 +1459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.8">
+    <row r="20" spans="1:7">
       <c r="A20" s="17">
         <v>12</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.8">
+    <row r="21" spans="1:7">
       <c r="A21" s="17">
         <v>13</v>
       </c>
@@ -1497,7 +1501,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8">
+    <row r="22" spans="1:7">
       <c r="A22" s="17">
         <v>14</v>
       </c>
@@ -1515,7 +1519,7 @@
       </c>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:7" ht="19.8">
+    <row r="23" spans="1:7">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1533,7 +1537,7 @@
       </c>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:7" ht="19.8">
+    <row r="24" spans="1:7">
       <c r="A24" s="17">
         <v>16</v>
       </c>
@@ -1551,7 +1555,7 @@
       </c>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8">
+    <row r="25" spans="1:7">
       <c r="A25" s="17">
         <v>17</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.8">
+    <row r="26" spans="1:7">
       <c r="A26" s="17">
         <v>18</v>
       </c>
@@ -1590,7 +1594,7 @@
       </c>
       <c r="F26" s="28"/>
     </row>
-    <row r="27" spans="1:7" ht="19.8">
+    <row r="27" spans="1:7">
       <c r="A27" s="17">
         <v>19</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.8">
+    <row r="28" spans="1:7">
       <c r="A28" s="17">
         <v>20</v>
       </c>
@@ -1627,7 +1631,7 @@
       <c r="E28" s="25"/>
       <c r="F28" s="28"/>
     </row>
-    <row r="29" spans="1:7" ht="19.8">
+    <row r="29" spans="1:7">
       <c r="A29" s="17">
         <v>21</v>
       </c>
@@ -1645,7 +1649,7 @@
       </c>
       <c r="F29" s="30"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8">
+    <row r="30" spans="1:7">
       <c r="A30" s="17">
         <v>22</v>
       </c>
@@ -1661,7 +1665,7 @@
       <c r="E30" s="25"/>
       <c r="F30" s="30"/>
     </row>
-    <row r="31" spans="1:7" ht="19.8">
+    <row r="31" spans="1:7">
       <c r="A31" s="17">
         <v>23</v>
       </c>
@@ -1706,11 +1710,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1787,7 +1791,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="19.8">
+    <row r="7" spans="1:3">
       <c r="A7" s="18" t="s">
         <v>96</v>
       </c>
@@ -1880,6 +1884,17 @@
       </c>
       <c r="C16" s="1" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L5-管理性作業/NegAppr01.xlsx
@@ -5,23 +5,34 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FD5EB8-EE7E-45B4-BED2-86C46F01EE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C37F1C-5002-4A03-BBD3-0BA256CD614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -456,14 +467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>bringUpDateFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BringUpDate&gt;= </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>bringUpDateCustNoFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -489,13 +492,33 @@
   <si>
     <t>findCustNoFinCodeFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BatchTx04回應失敗時倒扣本筆撥付金額</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ReplyCode &lt;&gt; , AND BringUpDate&gt;= </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BringUpDate DESC,FinCode ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findReplyCodeNotEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功:4001(轉換資料有NULL)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -604,6 +627,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -703,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +838,9 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -1121,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1307,7 +1340,7 @@
       <c r="B12" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="35" t="s">
         <v>68</v>
       </c>
       <c r="D12" s="18" t="s">
@@ -1417,6 +1450,9 @@
       <c r="F17" s="28">
         <v>2</v>
       </c>
+      <c r="G17" s="27" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="17">
@@ -1593,6 +1629,9 @@
         <v>4</v>
       </c>
       <c r="F26" s="28"/>
+      <c r="G26" s="27" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="17">
@@ -1626,7 +1665,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="28"/>
@@ -1660,7 +1699,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E30" s="25"/>
       <c r="F30" s="30"/>
@@ -1712,9 +1751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1855,21 +1894,21 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>110</v>
@@ -1877,18 +1916,18 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>85</v>
